--- a/Data/2002 STOP Summary.xlsx
+++ b/Data/2002 STOP Summary.xlsx
@@ -17114,7 +17114,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S199"/>
+  <dimension ref="A1:P199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
@@ -20599,7 +20599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z199"/>
+  <dimension ref="A1:W199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="R20" activePane="bottomRight" state="frozen"/>
@@ -25553,7 +25553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y199"/>
+  <dimension ref="A1:V199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
@@ -30425,7 +30425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O199"/>
+  <dimension ref="A1:L199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
@@ -33180,7 +33180,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L199"/>
+  <dimension ref="A1:J199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
@@ -35329,7 +35329,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L199"/>
+  <dimension ref="A1:J199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C35" activePane="bottomRight" state="frozen"/>

--- a/Data/2002 STOP Summary.xlsx
+++ b/Data/2002 STOP Summary.xlsx
@@ -11341,11 +11341,7 @@
       <c r="BN4" t="n">
         <v>3245859.81</v>
       </c>
-      <c r="BO4" t="inlineStr">
-        <is>
-          <t>*Reserve not reconciled</t>
-        </is>
-      </c>
+      <c r="BO4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -17114,7 +17110,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P199"/>
+  <dimension ref="A1:O84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
@@ -20436,130 +20432,9 @@
         <v>134673.95</v>
       </c>
     </row>
-    <row r="78"/>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
     <row r="84" ht="12.75" customHeight="1">
       <c r="A84" s="21" t="n"/>
     </row>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="E2:E3"/>
@@ -20599,7 +20474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W199"/>
+  <dimension ref="A1:V84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="R20" activePane="bottomRight" state="frozen"/>
@@ -25383,130 +25258,9 @@
         <v>1785860.66</v>
       </c>
     </row>
-    <row r="78"/>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
     <row r="84" ht="12.75" customHeight="1">
       <c r="A84" s="21" t="n"/>
     </row>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="22">
     <mergeCell ref="A1:B4"/>
@@ -25553,7 +25307,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V199"/>
+  <dimension ref="A1:U87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
@@ -30258,128 +30012,9 @@
         <v>3694167.51</v>
       </c>
     </row>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
     <row r="87">
       <c r="A87" s="20" t="n"/>
     </row>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="21">
     <mergeCell ref="M2:M3"/>
@@ -30425,7 +30060,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L199"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
@@ -33025,126 +32660,9 @@
       </c>
       <c r="F81" s="50" t="n"/>
     </row>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
     <row r="86">
       <c r="A86" s="20" t="n"/>
     </row>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="K2:K3"/>
@@ -33180,7 +32698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J199"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
@@ -35169,7 +34687,6 @@
         <v>5593990</v>
       </c>
     </row>
-    <row r="83"/>
     <row r="84">
       <c r="A84" s="19" t="inlineStr">
         <is>
@@ -35177,123 +34694,9 @@
         </is>
       </c>
     </row>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
     <row r="89">
       <c r="A89" s="20" t="n"/>
     </row>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A52:B53"/>
@@ -35329,7 +34732,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J199"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
@@ -37373,7 +36776,6 @@
         <v>27757168.98</v>
       </c>
     </row>
-    <row r="85"/>
     <row r="86">
       <c r="A86" s="19" t="inlineStr">
         <is>
@@ -37381,121 +36783,9 @@
         </is>
       </c>
     </row>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
     <row r="91">
       <c r="A91" s="20" t="n"/>
     </row>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A54:B55"/>
@@ -37528,7 +36818,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J199"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
@@ -39215,117 +38505,12 @@
         </is>
       </c>
     </row>
-    <row r="93"/>
     <row r="94">
       <c r="E94" s="53" t="n"/>
     </row>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
     <row r="98">
       <c r="A98" s="20" t="n"/>
     </row>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="E2:E3"/>
